--- a/dart_api/excel/stock.xlsx
+++ b/dart_api/excel/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safa6\git\python\Python_crawling\dart_api\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3601566F-5E14-4736-BF96-DD74269175DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29A723-13FF-477F-B6D7-EE16464A3C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>000660</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -433,6 +433,14 @@
       </c>
       <c r="B1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -447,7 +455,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/dart_api/excel/stock.xlsx
+++ b/dart_api/excel/stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safa6\git\python\Python_crawling\dart_api\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29A723-13FF-477F-B6D7-EE16464A3C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B802E5-0048-49D6-9CD1-8E82720447EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/dart_api/excel/stock.xlsx
+++ b/dart_api/excel/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safa6\git\python\Python_crawling\dart_api\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B802E5-0048-49D6-9CD1-8E82720447EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3979F-E893-4FFE-98F9-BD3E76A25110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>000660</t>
   </si>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>켐트로닉스</t>
+  </si>
+  <si>
+    <t>미래에셋대우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -441,6 +449,14 @@
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
